--- a/medicine/Enfance/Prix_du_chanoine-Bouard/Prix_du_chanoine-Bouard.xlsx
+++ b/medicine/Enfance/Prix_du_chanoine-Bouard/Prix_du_chanoine-Bouard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix du chanoine-Bouard, de la fondation du même nom, est un prix annuel de l'Institut de France (Académie française) « destiné à un prêtre français, missionnaire dans les (anciennes) colonies françaises ou à l’étranger, qui se sera distingué par son dévouement à l’égard des orphelins »[1].
-Edmond-Théodule Bouard (1871-1955) est un prêtre catholique du diocèse d'Orléans ordonné en 1896[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix du chanoine-Bouard, de la fondation du même nom, est un prix annuel de l'Institut de France (Académie française) « destiné à un prêtre français, missionnaire dans les (anciennes) colonies françaises ou à l’étranger, qui se sera distingué par son dévouement à l’égard des orphelins ».
+Edmond-Théodule Bouard (1871-1955) est un prêtre catholique du diocèse d'Orléans ordonné en 1896.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1988 :
 R.P. Desobry pour l'ensemble de son action.
@@ -521,17 +535,17 @@
 1990 : R.P. Irénée Vialets.
 1991 : Mgr Pierre Bach.
 1992 : R.P. Bernard Leurent.
-1993 : R.P. Tygréat, missionnaire en Birmanie et en Thailande, pour l'ensemble de son œuvre[3].
-1994 : R.P. Jacques Dussaigne, missionnaire en Inde[4].
+1993 : R.P. Tygréat, missionnaire en Birmanie et en Thailande, pour l'ensemble de son œuvre.
+1994 : R.P. Jacques Dussaigne, missionnaire en Inde.
 1996 : R.P. Pierre Tritz pour son dévouement aux enfants de Manille.
 1998 : R.P. Pierre Ceyrac pour son dévouement aux enfants de Madras, Inde.
 2000 : R.P. Gérard Mauviel pour l'ensemble de son action pour les Missions étrangères de Paris.
 2002 : R.P. Pierre Tritz pour l'ensemble de son action à Manille.
 2004 : R.P. Thomas pour l'ensemble de son action à Manille.
-2006 : R.P. Pierrick Van Dorpe (Association Ahuana)[5].
-2008 : R.P. Jean-Claude Hébert pour l'ensemble de son action[6].
-2009 : R.P. Jean-Claude Hébert pour son action auprès des plus pauvres en Haïti, dans le diocèse de Jérémie[6].
-2010 : R.P. Michel Briand pour son action auprès des plus pauvres à Port-au-Prince, en Haïti[7].</t>
+2006 : R.P. Pierrick Van Dorpe (Association Ahuana).
+2008 : R.P. Jean-Claude Hébert pour l'ensemble de son action.
+2009 : R.P. Jean-Claude Hébert pour son action auprès des plus pauvres en Haïti, dans le diocèse de Jérémie.
+2010 : R.P. Michel Briand pour son action auprès des plus pauvres à Port-au-Prince, en Haïti.</t>
         </is>
       </c>
     </row>
